--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 4 (26, 33, 36, 49, 2)/MDD 5 (0, 30, 46, 17, 23)/ANN_128nodes_Uniform0.05Virtual_Control(26, 33, 36, 49, 2)_MDD(0, 30, 46, 17, 23)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 4 (26, 33, 36, 49, 2)/MDD 5 (0, 30, 46, 17, 23)/ANN_128nodes_Uniform0.05Virtual_Control(26, 33, 36, 49, 2)_MDD(0, 30, 46, 17, 23)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999992013115087</v>
+        <v>0.9999717487778564</v>
       </c>
       <c r="E2">
-        <v>0.9999992013115087</v>
+        <v>0.9999717487778564</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -467,13 +467,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9996782482007044</v>
+        <v>6.998151979627356E-07</v>
       </c>
       <c r="E3">
-        <v>0.9996782482007044</v>
+        <v>6.998151979627356E-07</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9926955403107182</v>
+        <v>0.9999991809706881</v>
       </c>
       <c r="E4">
-        <v>0.9926955403107182</v>
+        <v>0.9999991809706881</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.003902891944332961</v>
+        <v>0.05419778049529315</v>
       </c>
       <c r="E5">
-        <v>0.003902891944332961</v>
+        <v>0.05419778049529315</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>1.171367962879979E-14</v>
+        <v>6.80692856056736E-16</v>
       </c>
       <c r="E6">
-        <v>1.171367962879979E-14</v>
+        <v>6.80692856056736E-16</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>5.423354900332688E-10</v>
+        <v>1.706659356146565E-05</v>
       </c>
       <c r="E8">
-        <v>0.9999999994576645</v>
+        <v>0.9999829334064385</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>7.046085451998499E-239</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -568,10 +568,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0002559668823330915</v>
+        <v>2.048792234315811E-06</v>
       </c>
       <c r="E10">
-        <v>0.9997440331176669</v>
+        <v>0.9999979512077657</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9999804802378922</v>
+        <v>0.9999358588185379</v>
       </c>
       <c r="E11">
-        <v>1.951976210778916E-05</v>
+        <v>6.414118146214065E-05</v>
       </c>
       <c r="F11">
-        <v>80.89204406738281</v>
+        <v>59.69873046875</v>
       </c>
       <c r="G11">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
